--- a/Kitap1.xlsx
+++ b/Kitap1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
   <si>
     <t>ID</t>
   </si>
@@ -106,6 +106,156 @@
   </si>
   <si>
     <t>universite</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>a4</t>
+  </si>
+  <si>
+    <t>a5</t>
+  </si>
+  <si>
+    <t>a6</t>
+  </si>
+  <si>
+    <t>a7</t>
+  </si>
+  <si>
+    <t>a8</t>
+  </si>
+  <si>
+    <t>a9</t>
+  </si>
+  <si>
+    <t>a10</t>
+  </si>
+  <si>
+    <t>a11</t>
+  </si>
+  <si>
+    <t>a12</t>
+  </si>
+  <si>
+    <t>a13</t>
+  </si>
+  <si>
+    <t>a14</t>
+  </si>
+  <si>
+    <t>a15</t>
+  </si>
+  <si>
+    <t>a16</t>
+  </si>
+  <si>
+    <t>a17</t>
+  </si>
+  <si>
+    <t>a18</t>
+  </si>
+  <si>
+    <t>a19</t>
+  </si>
+  <si>
+    <t>a20</t>
+  </si>
+  <si>
+    <t>a21</t>
+  </si>
+  <si>
+    <t>a22</t>
+  </si>
+  <si>
+    <t>a23</t>
+  </si>
+  <si>
+    <t>a24</t>
+  </si>
+  <si>
+    <t>a25</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>b4</t>
+  </si>
+  <si>
+    <t>b5</t>
+  </si>
+  <si>
+    <t>b6</t>
+  </si>
+  <si>
+    <t>b7</t>
+  </si>
+  <si>
+    <t>b8</t>
+  </si>
+  <si>
+    <t>b9</t>
+  </si>
+  <si>
+    <t>b10</t>
+  </si>
+  <si>
+    <t>b11</t>
+  </si>
+  <si>
+    <t>b12</t>
+  </si>
+  <si>
+    <t>b13</t>
+  </si>
+  <si>
+    <t>b14</t>
+  </si>
+  <si>
+    <t>b15</t>
+  </si>
+  <si>
+    <t>b16</t>
+  </si>
+  <si>
+    <t>b17</t>
+  </si>
+  <si>
+    <t>b18</t>
+  </si>
+  <si>
+    <t>b19</t>
+  </si>
+  <si>
+    <t>b20</t>
+  </si>
+  <si>
+    <t>b21</t>
+  </si>
+  <si>
+    <t>b22</t>
+  </si>
+  <si>
+    <t>b23</t>
+  </si>
+  <si>
+    <t>b24</t>
+  </si>
+  <si>
+    <t>b25</t>
   </si>
 </sst>
 </file>
@@ -678,7 +828,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,6 +857,12 @@
       <c r="B2">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
       <c r="E2">
         <f>Sayfa1!F2+10</f>
         <v>1910</v>
@@ -723,12 +879,18 @@
       <c r="B3">
         <v>4</v>
       </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
       <c r="E3">
         <f>Sayfa1!F3+10</f>
         <v>1910</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="E3:F26" si="0">E3+4</f>
+        <f t="shared" ref="F3:F26" si="0">E3+4</f>
         <v>1914</v>
       </c>
       <c r="G3" t="s">
@@ -739,6 +901,12 @@
       <c r="B4">
         <v>5</v>
       </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
       <c r="E4">
         <f>Sayfa1!F4+10</f>
         <v>1951</v>
@@ -755,6 +923,12 @@
       <c r="B5">
         <v>6</v>
       </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
       <c r="E5">
         <f>Sayfa1!F5+10</f>
         <v>1952</v>
@@ -771,6 +945,12 @@
       <c r="B6">
         <v>7</v>
       </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
       <c r="E6">
         <f>Sayfa1!F6+10</f>
         <v>1953</v>
@@ -787,6 +967,12 @@
       <c r="B7">
         <v>8</v>
       </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
       <c r="E7">
         <f>Sayfa1!F7+10</f>
         <v>1954</v>
@@ -803,6 +989,12 @@
       <c r="B8">
         <v>9</v>
       </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
       <c r="E8">
         <f>Sayfa1!F8+10</f>
         <v>1955</v>
@@ -819,6 +1011,12 @@
       <c r="B9">
         <v>10</v>
       </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
       <c r="E9">
         <f>Sayfa1!F9+10</f>
         <v>1995</v>
@@ -835,6 +1033,12 @@
       <c r="B10">
         <v>11</v>
       </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
       <c r="E10">
         <f>Sayfa1!F10+10</f>
         <v>1996</v>
@@ -851,6 +1055,12 @@
       <c r="B11">
         <v>12</v>
       </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>61</v>
+      </c>
       <c r="E11">
         <f>Sayfa1!F11+10</f>
         <v>1997</v>
@@ -867,6 +1077,12 @@
       <c r="B12">
         <v>5</v>
       </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>62</v>
+      </c>
       <c r="E12">
         <f>F4</f>
         <v>1955</v>
@@ -883,6 +1099,12 @@
       <c r="B13">
         <v>6</v>
       </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
       <c r="E13">
         <f t="shared" ref="E13:E19" si="1">F5</f>
         <v>1956</v>
@@ -899,6 +1121,12 @@
       <c r="B14">
         <v>7</v>
       </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
       <c r="E14">
         <f t="shared" si="1"/>
         <v>1957</v>
@@ -915,6 +1143,12 @@
       <c r="B15">
         <v>8</v>
       </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
       <c r="E15">
         <f t="shared" si="1"/>
         <v>1958</v>
@@ -931,6 +1165,12 @@
       <c r="B16">
         <v>9</v>
       </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
       <c r="E16">
         <f t="shared" si="1"/>
         <v>1959</v>
@@ -947,6 +1187,12 @@
       <c r="B17">
         <v>10</v>
       </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
       <c r="E17">
         <f t="shared" si="1"/>
         <v>1999</v>
@@ -963,6 +1209,12 @@
       <c r="B18">
         <v>11</v>
       </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
       <c r="E18">
         <f t="shared" si="1"/>
         <v>2000</v>
@@ -979,6 +1231,12 @@
       <c r="B19">
         <v>12</v>
       </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
       <c r="E19">
         <f t="shared" si="1"/>
         <v>2001</v>
@@ -995,6 +1253,12 @@
       <c r="B20">
         <v>7</v>
       </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
       <c r="E20">
         <f>F14</f>
         <v>1961</v>
@@ -1011,6 +1275,12 @@
       <c r="B21">
         <v>8</v>
       </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>71</v>
+      </c>
       <c r="E21">
         <f t="shared" ref="E21:E25" si="2">F15</f>
         <v>1962</v>
@@ -1027,6 +1297,12 @@
       <c r="B22">
         <v>9</v>
       </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s">
+        <v>72</v>
+      </c>
       <c r="E22">
         <f t="shared" si="2"/>
         <v>1963</v>
@@ -1043,6 +1319,12 @@
       <c r="B23">
         <v>10</v>
       </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" t="s">
+        <v>73</v>
+      </c>
       <c r="E23">
         <f t="shared" si="2"/>
         <v>2003</v>
@@ -1059,6 +1341,12 @@
       <c r="B24">
         <v>11</v>
       </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" t="s">
+        <v>74</v>
+      </c>
       <c r="E24">
         <f t="shared" si="2"/>
         <v>2004</v>
@@ -1075,6 +1363,12 @@
       <c r="B25">
         <v>12</v>
       </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>75</v>
+      </c>
       <c r="E25">
         <f t="shared" si="2"/>
         <v>2005</v>
@@ -1090,6 +1384,12 @@
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" t="s">
+        <v>76</v>
       </c>
       <c r="E26">
         <f>F24</f>
